--- a/Ejercicios/7.- Rate Risk.xlsx
+++ b/Ejercicios/7.- Rate Risk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajos Iteso\6to Semestre\Administración de Riesgos\Administracion_de_Riesgos\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264CA75C-5CEA-4ABC-AA74-3576B3D9092E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D9DA3-128E-47A4-8C20-AE1A78DA12F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No.1" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t xml:space="preserve">Tenemos un swap cuyo DV01 es de 7,372 pesos </t>
   </si>
@@ -101,6 +101,117 @@
   </si>
   <si>
     <t>Vendo</t>
+  </si>
+  <si>
+    <t>Banco ---&gt; Market Maker</t>
+  </si>
+  <si>
+    <t>Cobertura: Neutralizar riesgos</t>
+  </si>
+  <si>
+    <t>1.- Nuestro riesgo es que las tasas suban</t>
+  </si>
+  <si>
+    <t>2.- Vendemos bonos en corto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.- </t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Settle</t>
+  </si>
+  <si>
+    <t>Tasa swap</t>
+  </si>
+  <si>
+    <t>Valor del Swap</t>
+  </si>
+  <si>
+    <t>Nocional</t>
+  </si>
+  <si>
+    <t>105M</t>
+  </si>
+  <si>
+    <t>Valor del Swap + 1 basis</t>
+  </si>
+  <si>
+    <t>DV01 Swap</t>
+  </si>
+  <si>
+    <t>Valor del Bono</t>
+  </si>
+  <si>
+    <t>Valor del Bono + 1 basis</t>
+  </si>
+  <si>
+    <t>Tenemos que vender en corto</t>
+  </si>
+  <si>
+    <t>DV01 Bono</t>
+  </si>
+  <si>
+    <t>bonos de la serie "26-may-33"</t>
+  </si>
+  <si>
+    <t>4.- Escenario Hipotético: Banxico sube las tasas 10 basis ese mismo día</t>
+  </si>
+  <si>
+    <t>Valor del Swap mas 10 basis</t>
+  </si>
+  <si>
+    <t>Valor del bono + 10 basis</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Si estoy largo: ganancia Pt - Po</t>
+  </si>
+  <si>
+    <t>Si estoy corto: ganancia Po - Pt</t>
+  </si>
+  <si>
+    <t>Profit por bono</t>
+  </si>
+  <si>
+    <t>Profit total</t>
+  </si>
+  <si>
+    <t>P&amp;L</t>
+  </si>
+  <si>
+    <t>210M</t>
+  </si>
+  <si>
+    <t>1.- Nuestro riesgo es que las tasas bajen</t>
+  </si>
+  <si>
+    <t>2.- Comprar bonos</t>
+  </si>
+  <si>
+    <t>bonos de la serie "03-sep-26"</t>
+  </si>
+  <si>
+    <t>Tenemos que comprar</t>
+  </si>
+  <si>
+    <t>4.- Escenario hipotético, banxico baja las tasas 15 bases</t>
+  </si>
+  <si>
+    <t>Valor del swap - 15 basis</t>
+  </si>
+  <si>
+    <t>Valor del bono - 15 basis</t>
+  </si>
+  <si>
+    <t>Nuestro riesgo es que las tasas bajen y como bajaron las tasas tenemos pérdida en el swap</t>
   </si>
 </sst>
 </file>
@@ -110,9 +221,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +245,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -164,15 +287,32 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -204,7 +344,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>24658</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -774,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CB1C4C-048B-B84F-A7DC-1166A1B6FAE8}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="136" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="136" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -911,12 +1051,193 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="G5:M31"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="6">
+        <v>12206</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="6">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="14" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.10539999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="8">
+        <v>11065000</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17">
+        <v>87.542699999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="9">
+        <v>11130000</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <v>87.491299999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="1">
+        <f>+H18-H17</f>
+        <v>65000</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="1">
+        <f>+ABS(K18-K17)</f>
+        <v>5.1400000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="8">
+        <f>+H20/K20</f>
+        <v>1264591.4396886914</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="8">
+        <v>11716000</v>
+      </c>
+      <c r="J27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27">
+        <v>87.03</v>
+      </c>
+      <c r="M27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="5">
+        <f>+H17-H27</f>
+        <v>-651000</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <f>+K17-K27</f>
+        <v>0.51269999999999527</v>
+      </c>
+      <c r="M28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="10">
+        <f>+K28*H22</f>
+        <v>648356.03112838615</v>
+      </c>
+    </row>
+    <row r="31" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="10">
+        <f>+H28+K29</f>
+        <v>-2643.968871613848</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -925,14 +1246,201 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="D4:L27"/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="29.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="6">
+        <v>46254</v>
+      </c>
+    </row>
+    <row r="9" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="6">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="10" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="8">
+        <v>8430800</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13">
+        <v>97.034300000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="11">
+        <v>8469100</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14">
+        <v>97.020399999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="12">
+        <f>+ABS(I14-I13)</f>
+        <v>38300</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="1">
+        <f>+ABS(L14-L13)</f>
+        <v>1.3900000000006685E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="12">
+        <f>+I16/L16</f>
+        <v>2755395.6834519124</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="8">
+        <f>--7855600</f>
+        <v>7855600</v>
+      </c>
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22">
+        <v>97.243200000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="8">
+        <f>+I22-I13</f>
+        <v>-575200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23">
+        <f>+L22-L13</f>
+        <v>0.20889999999999986</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="K24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="10">
+        <f>+L23*I18</f>
+        <v>575602.15827310411</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="10">
+        <f>+I23+L24</f>
+        <v>402.1582731041126</v>
+      </c>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="I27" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D21:F24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Ejercicios/7.- Rate Risk.xlsx
+++ b/Ejercicios/7.- Rate Risk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajos Iteso\6to Semestre\Administración de Riesgos\Administracion_de_Riesgos\Ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\epile\Desktop\ITESO\6to Semestre\Administración de Riesgos\Administracion_de_Riesgos\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D9DA3-128E-47A4-8C20-AE1A78DA12F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F6C037-AFC6-4F2A-94C0-E3BBEFA7C4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-6900" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No.1" sheetId="7" r:id="rId1"/>
@@ -914,58 +914,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CB1C4C-048B-B84F-A7DC-1166A1B6FAE8}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="136" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="136" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -977,7 +977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -989,12 +989,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1002,12 +1002,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1027,12 +1027,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -1053,43 +1053,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="G5:M31"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:K20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>26</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>12206</v>
       </c>
     </row>
-    <row r="13" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>27</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>45700</v>
       </c>
     </row>
-    <row r="14" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>28</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>0.10539999999999999</v>
       </c>
     </row>
-    <row r="15" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>30</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>29</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>87.542699999999996</v>
       </c>
     </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>32</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>87.491299999999995</v>
       </c>
     </row>
-    <row r="20" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>5.1400000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>36</v>
       </c>
@@ -1178,12 +1178,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>40</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>42</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
         <v>47</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>648356.03112838615</v>
       </c>
     </row>
-    <row r="31" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>48</v>
       </c>
@@ -1248,34 +1248,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D4:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="29.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>26</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>46254</v>
       </c>
     </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>27</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>45700</v>
       </c>
     </row>
-    <row r="10" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>28</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>30</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
         <v>29</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>97.034300000000002</v>
       </c>
     </row>
-    <row r="14" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>32</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>97.020399999999995</v>
       </c>
     </row>
-    <row r="16" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>1.3900000000006685E-2</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H18" s="1" t="s">
         <v>53</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="4:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="14" t="s">
         <v>57</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -1392,7 +1392,7 @@
         <v>97.243200000000002</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -1411,7 +1411,7 @@
         <v>0.20889999999999986</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1424,7 +1424,7 @@
         <v>575602.15827310411</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>48</v>
       </c>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="L25" s="10"/>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I27" s="10"/>
     </row>
   </sheetData>
